--- a/clusters/tests/test_models/excel_test_file/cl_example_topics_disparity.xlsx
+++ b/clusters/tests/test_models/excel_test_file/cl_example_topics_disparity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xpeppers/Desktop/career-landscape/clusters/tests/test_models/excel_test_file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2A8839-7C50-DB40-95D0-30D4592AA19E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DAFEC9-2A06-2A40-9AC1-D63CEE705FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="660" windowWidth="21940" windowHeight="11580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="660" windowWidth="29240" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>User Information</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>user_surname</t>
-  </si>
-  <si>
-    <t>29-01-2020</t>
   </si>
   <si>
     <t>topic1</t>
@@ -145,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -159,6 +156,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,13 +512,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="A1:E16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -544,8 +542,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="7">
+        <v>43859</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -553,22 +551,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -579,7 +577,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -590,7 +588,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -601,7 +599,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -616,7 +614,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -624,18 +622,18 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -649,7 +647,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -663,7 +661,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -677,7 +675,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -714,7 +712,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -740,28 +738,28 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="7">
+        <v>43859</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -772,7 +770,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -783,7 +781,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -794,7 +792,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -808,7 +806,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -816,18 +814,18 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -841,7 +839,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -855,7 +853,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -869,7 +867,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -893,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE70F21-8573-EA43-84BB-E83EC5572B18}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -920,28 +918,28 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="7">
+        <v>43859</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -952,7 +950,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -963,7 +961,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -974,7 +972,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -988,7 +986,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -996,18 +994,18 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -1021,7 +1019,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1035,7 +1033,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1049,7 +1047,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
